--- a/code/accidents_at_work/part_of_the_body_08.xlsx
+++ b/code/accidents_at_work/part_of_the_body_08.xlsx
@@ -150,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -178,12 +178,6 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -199,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -238,14 +232,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
+      <top style="medium">
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -257,10 +266,25 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -274,8 +298,8 @@
       <right style="medium">
         <color indexed="8"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -289,8 +313,8 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -305,7 +329,22 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -322,8 +361,8 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -337,8 +376,8 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -353,111 +392,6 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -468,7 +402,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -481,37 +415,34 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -522,36 +453,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1633,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1643,8 +1544,7 @@
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" customHeight="1">
@@ -1657,507 +1557,275 @@
       <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="D1" t="s" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="13.2" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>455</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="C2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="7">
+        <v>2008</v>
+      </c>
     </row>
     <row r="3" ht="13.2" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>515</v>
       </c>
-      <c r="B3" t="s" s="10">
+      <c r="B3" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="C3" t="s" s="10">
         <v>6</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="4" ht="13.2" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>204</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="5" ht="13.2" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>401</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="C5" t="s" s="11">
+      <c r="C5" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="6" ht="13.2" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>352</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" t="s" s="9">
         <v>11</v>
       </c>
       <c r="C6" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="7" ht="27" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>44</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" t="s" s="9">
         <v>13</v>
       </c>
       <c r="C7" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="8" ht="26.4" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>65</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="B8" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="C8" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="9" ht="13.2" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>362</v>
       </c>
-      <c r="B9" t="s" s="10">
+      <c r="B9" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="C9" t="s" s="10">
         <v>18</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="10" ht="75.75" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>258</v>
       </c>
-      <c r="B10" t="s" s="10">
+      <c r="B10" t="s" s="9">
         <v>19</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C10" t="s" s="10">
         <v>20</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="11" ht="13.2" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>222</v>
       </c>
-      <c r="B11" t="s" s="10">
+      <c r="B11" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="C11" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="12" ht="13.2" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>177</v>
       </c>
-      <c r="B12" t="s" s="10">
+      <c r="B12" t="s" s="9">
         <v>23</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="C12" t="s" s="10">
         <v>24</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="13" ht="13.2" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>212</v>
       </c>
-      <c r="B13" t="s" s="10">
+      <c r="B13" t="s" s="9">
         <v>25</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="C13" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="14">
+      <c r="A14" s="13">
         <v>2753</v>
       </c>
-      <c r="B14" t="s" s="10">
+      <c r="B14" t="s" s="9">
         <v>27</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="C14" t="s" s="10">
         <v>28</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>64</v>
       </c>
-      <c r="B15" t="s" s="10">
+      <c r="B15" t="s" s="9">
         <v>29</v>
       </c>
-      <c r="C15" t="s" s="11">
+      <c r="C15" t="s" s="10">
         <v>30</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>152</v>
       </c>
-      <c r="B16" t="s" s="10">
+      <c r="B16" t="s" s="9">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="11">
+      <c r="C16" t="s" s="10">
         <v>32</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>632</v>
       </c>
-      <c r="B17" t="s" s="10">
+      <c r="B17" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="C17" t="s" s="11">
+      <c r="C17" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="18" ht="24" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>392</v>
       </c>
-      <c r="B18" t="s" s="10">
+      <c r="B18" t="s" s="9">
         <v>35</v>
       </c>
-      <c r="C18" t="s" s="11">
+      <c r="C18" t="s" s="10">
         <v>36</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>840</v>
       </c>
-      <c r="B19" t="s" s="10">
+      <c r="B19" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="C19" t="s" s="11">
+      <c r="C19" t="s" s="10">
         <v>38</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>1013</v>
       </c>
-      <c r="B20" t="s" s="16">
+      <c r="B20" t="s" s="15">
         <v>39</v>
       </c>
-      <c r="C20" t="s" s="17">
+      <c r="C20" t="s" s="16">
         <v>40</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" ht="13.2" customHeight="1">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" ht="13.2" customHeight="1">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" ht="13.2" customHeight="1">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" ht="13.8" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" ht="13.2" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" ht="13.2" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" ht="13.2" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" ht="13.2" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" ht="13.2" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" ht="13.2" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" ht="13.2" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" ht="13.2" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" ht="13.2" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" ht="13.2" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" ht="13.2" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" ht="13.2" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" ht="13.2" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" ht="13.2" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" ht="13.2" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" ht="13.2" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" ht="13.2" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" ht="13.2" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" ht="13.2" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" ht="13.2" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" ht="13.2" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" ht="13.2" customHeight="1">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" ht="13.2" customHeight="1">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" ht="13.2" customHeight="1">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="D20" s="11">
+        <v>2008</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.590551" right="0.551181" top="0.629921" bottom="0.590551" header="0.11811" footer="0.11811"/>
